--- a/app/assets/javascripts/quiz_data/quiz2.xlsx
+++ b/app/assets/javascripts/quiz_data/quiz2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve"> I like to take one photo and hope it's good.</t>
+  </si>
+  <si>
+    <t>secretsauce.com/:track/:page/</t>
+  </si>
+  <si>
+    <t>expectations</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,14 +248,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -258,6 +257,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -629,7 +640,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -643,127 +654,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="23">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="23">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="23">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="23">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="203">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -772,14 +787,14 @@
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="58">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -788,29 +803,29 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="87">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
